--- a/models/calculation engines/cbix2/outputs/default/freight_calcs_to_qingdao_first_leg/actual_price_determination_from_CBIX_price/frieght_calculations-actual_port-first_leg.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/freight_calcs_to_qingdao_first_leg/actual_price_determination_from_CBIX_price/frieght_calculations-actual_port-first_leg.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>329.22</v>
+        <v>329.2199999999999</v>
       </c>
       <c r="E2" t="n">
         <v>84714</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94064.31505879021</v>
+        <v>94064.31505879022</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
         <v>37945.54469471597</v>
       </c>
       <c r="F5" t="n">
-        <v>53606.97308400624</v>
+        <v>53606.97308400625</v>
       </c>
     </row>
     <row r="6">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>189.0410658016682</v>
+        <v>189.0410658016681</v>
       </c>
       <c r="E13" t="n">
         <v>19939.45010812479</v>
@@ -1132,7 +1132,7 @@
         <v>188.302955465587</v>
       </c>
       <c r="E29" t="n">
-        <v>19598.38056680161</v>
+        <v>19598.38056680162</v>
       </c>
       <c r="F29" t="n">
         <v>30006.71659919028</v>
